--- a/exmo.xlsx
+++ b/exmo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="ETH" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>buy</t>
   </si>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,6 +455,45 @@
         <v>12.712072288839344</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <f>D5/B5</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>D5*E2</f>
+        <v>10.307213114754099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6">
+        <f>C5*(1-0.002)</f>
+        <v>5.5444444444444442E-2</v>
+      </c>
+      <c r="D6">
+        <f>E5+D4</f>
+        <v>23.019285403593443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="2">
+        <f>D6/C7</f>
+        <v>232.3217592787235</v>
+      </c>
+      <c r="C7">
+        <f>C6+C4</f>
+        <v>9.9083639324444445E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -465,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -556,7 +595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/exmo.xlsx
+++ b/exmo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
   <si>
     <t>buy</t>
   </si>
@@ -375,7 +375,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,38 +460,38 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C5">
         <f>D5/B5</f>
-        <v>5.5555555555555552E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <f>D5*E2</f>
-        <v>10.307213114754099</v>
+        <v>5.1536065573770493</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6">
         <f>C5*(1-0.002)</f>
-        <v>5.5444444444444442E-2</v>
+        <v>2.3209302325581396E-2</v>
       </c>
       <c r="D6">
         <f>E5+D4</f>
-        <v>23.019285403593443</v>
+        <v>17.865678846216394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2">
         <f>D6/C7</f>
-        <v>232.3217592787235</v>
+        <v>267.25625246702975</v>
       </c>
       <c r="C7">
         <f>C6+C4</f>
-        <v>9.9083639324444445E-2</v>
+        <v>6.6848497205581392E-2</v>
       </c>
     </row>
   </sheetData>
@@ -502,10 +502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -573,6 +573,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="2">
         <f>D5/C5</f>
         <v>0.36798596439510273</v>
@@ -584,6 +587,54 @@
       <c r="D5">
         <f>D2+E3</f>
         <v>12.414496677190865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C6">
+        <f>D6/B6</f>
+        <v>16.393442622950818</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f>D6*E2</f>
+        <v>5.0679687474352386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7">
+        <f>C6*(1-0.002)</f>
+        <v>16.360655737704917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>D8/C8</f>
+        <v>0.34897238743597941</v>
+      </c>
+      <c r="C8">
+        <f>C7+C5</f>
+        <v>50.096987767644919</v>
+      </c>
+      <c r="D8">
+        <f>E6+E3+D2</f>
+        <v>17.482465424626103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10">
+        <f>D8+ETH!D6</f>
+        <v>35.348144270842496</v>
       </c>
     </row>
   </sheetData>

--- a/exmo.xlsx
+++ b/exmo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ETH" sheetId="1" r:id="rId1"/>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -384,7 +384,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +399,7 @@
         <v>6.6131808000000003</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -419,7 +419,7 @@
         <v>1.0307213114754099</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -438,7 +438,7 @@
         <v>5.8957259016393442</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -455,7 +455,7 @@
         <v>12.712072288839344</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>5.1536065573770493</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="C6">
         <f>C5*(1-0.002)</f>
         <v>2.3209302325581396E-2</v>
@@ -484,7 +484,7 @@
         <v>17.865678846216394</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" s="2">
         <f>D6/C7</f>
         <v>267.25625246702975</v>
@@ -492,6 +492,36 @@
       <c r="C7">
         <f>C6+C4</f>
         <v>6.6848497205581392E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" s="1">
+        <v>6.6131808000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="1">
+        <v>5.8079999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="1">
+        <v>4.9999970999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15">
+        <f>SUM(E12:E14)</f>
+        <v>17.4211779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="1">
+        <v>17.984345699999999</v>
+      </c>
+      <c r="F16">
+        <f>E16/E15</f>
+        <v>1.0323266201190677</v>
       </c>
     </row>
   </sheetData>
@@ -502,15 +532,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -635,6 +667,36 @@
       <c r="C10">
         <f>D8+ETH!D6</f>
         <v>35.348144270842496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="1">
+        <v>7.7703129100000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1">
+        <v>4.3419999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1">
+        <v>5.0000008500000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16">
+        <f>SUM(E13:E15)</f>
+        <v>17.112313759999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="1">
+        <v>17.425503750000001</v>
+      </c>
+      <c r="F17">
+        <f>E17/E16</f>
+        <v>1.0183020247520287</v>
       </c>
     </row>
   </sheetData>

--- a/exmo.xlsx
+++ b/exmo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ETH" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>buy</t>
   </si>
   <si>
     <t>sell</t>
+  </si>
+  <si>
+    <t>в місяць</t>
+  </si>
+  <si>
+    <t>в день</t>
+  </si>
+  <si>
+    <t>баланс</t>
+  </si>
+  <si>
+    <t>операцій в день</t>
+  </si>
+  <si>
+    <t>період між операціями</t>
   </si>
 </sst>
 </file>
@@ -534,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -706,14 +721,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>ROUNDUP(B1/30,0)</f>
+        <v>3334</v>
+      </c>
+      <c r="C2">
+        <f>B2*0.002</f>
+        <v>6.6680000000000001</v>
+      </c>
+      <c r="E2">
+        <f>C2*0.05</f>
+        <v>0.33340000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>ROUND(B2/B3,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f>ROUNDUP(24*60/B4,0)</f>
+        <v>480</v>
+      </c>
+      <c r="C5">
+        <f>INT(B5/60)</f>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f>B5-C5*60</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exmo.xlsx
+++ b/exmo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="ETH" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,24 +641,24 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0.30499999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="C6">
         <f>D6/B6</f>
-        <v>16.393442622950818</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+        <v>17.152309935483871</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.3172160799999997</v>
       </c>
       <c r="E6">
         <f>D6*E2</f>
-        <v>5.0679687474352386</v>
+        <v>5.3894969833600213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7">
         <f>C6*(1-0.002)</f>
-        <v>16.360655737704917</v>
+        <v>17.118005315612901</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -667,21 +667,21 @@
       </c>
       <c r="B8">
         <f>D8/C8</f>
-        <v>0.34897238743597941</v>
+        <v>0.35009784002441241</v>
       </c>
       <c r="C8">
         <f>C7+C5</f>
-        <v>50.096987767644919</v>
+        <v>50.854337345552906</v>
       </c>
       <c r="D8">
         <f>E6+E3+D2</f>
-        <v>17.482465424626103</v>
+        <v>17.803993660550884</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="C10">
         <f>D8+ETH!D6</f>
-        <v>35.348144270842496</v>
+        <v>35.669672506767277</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -723,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
